--- a/Data/g11.3.xlsx
+++ b/Data/g11.3.xlsx
@@ -1002,13 +1002,13 @@
         <v>2025</v>
       </c>
       <c r="C30" t="n">
-        <v>5.591260045717348</v>
+        <v>6.709622526766052</v>
       </c>
       <c r="D30" t="n">
-        <v>27.9442578076096</v>
+        <v>26.25038458442191</v>
       </c>
       <c r="E30" t="n">
-        <v>66.46448214667305</v>
+        <v>67.03999288881207</v>
       </c>
     </row>
     <row r="31">
@@ -1553,13 +1553,13 @@
         <v>2025</v>
       </c>
       <c r="C59" t="n">
-        <v>1.509703475015354</v>
+        <v>1.07206591321034</v>
       </c>
       <c r="D59" t="n">
-        <v>38.32966989187329</v>
+        <v>38.95581830759156</v>
       </c>
       <c r="E59" t="n">
-        <v>60.16062663311137</v>
+        <v>59.97211577919808</v>
       </c>
     </row>
     <row r="60">
@@ -1993,7 +1993,7 @@
         <v>1.851779892623483</v>
       </c>
       <c r="D82" t="n">
-        <v>39.20083455047177</v>
+        <v>39.20083455047176</v>
       </c>
       <c r="E82" t="n">
         <v>58.94738555690475</v>
@@ -2047,13 +2047,13 @@
         <v>2022</v>
       </c>
       <c r="C85" t="n">
-        <v>2.460947153736295</v>
+        <v>2.460947153736296</v>
       </c>
       <c r="D85" t="n">
         <v>41.10434978589831</v>
       </c>
       <c r="E85" t="n">
-        <v>56.43470306036539</v>
+        <v>56.4347030603654</v>
       </c>
     </row>
     <row r="86">
@@ -2104,13 +2104,13 @@
         <v>2025</v>
       </c>
       <c r="C88" t="n">
-        <v>1.509703475015354</v>
+        <v>1.692187681270074</v>
       </c>
       <c r="D88" t="n">
-        <v>38.32966989187329</v>
+        <v>37.34177051606286</v>
       </c>
       <c r="E88" t="n">
-        <v>60.16062663311137</v>
+        <v>60.96604180266707</v>
       </c>
     </row>
   </sheetData>
